--- a/mosip_master/xlsx/sync_job_def.xlsx
+++ b/mosip_master/xlsx/sync_job_def.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1044292\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A235C3D-94AA-4A3D-A935-3B955C5FDA55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +51,6 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
     <t>MDS_J00001</t>
   </si>
   <si>
@@ -186,12 +184,15 @@
   </si>
   <si>
     <t>SCJ_J00018</t>
+  </si>
+  <si>
+    <t>fra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,7 +288,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -565,25 +566,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -609,335 +610,335 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/mosip_master/xlsx/sync_job_def.xlsx
+++ b/mosip_master/xlsx/sync_job_def.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Mosip Codebase\GUINEA_Pilot\GUINEA_Pilot_Mosip-Data_WuriGuinea-1.2.0.1-B1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A235C3D-94AA-4A3D-A935-3B955C5FDA55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D1A22E-1563-4FDC-863F-8701900A30EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="61">
   <si>
     <t>lang_code</t>
   </si>
@@ -66,9 +66,6 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>PDS_J00003</t>
   </si>
   <si>
@@ -187,24 +184,42 @@
   </si>
   <si>
     <t>fra</t>
+  </si>
+  <si>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
+    <t>job_type</t>
+  </si>
+  <si>
+    <t>superadmin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Cambria"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -216,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -224,41 +239,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,378 +555,726 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="3" max="3" width="31.90625" customWidth="1"/>
+    <col min="4" max="4" width="31.54296875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" style="1"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="I1" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="2">
+        <v>45079.577802685184</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="2">
+        <v>45079.577802685184</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="2">
+        <v>45079.577802685184</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="2">
+        <v>45079.577802685184</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="2">
+        <v>45079.577802685184</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="2">
+        <v>45079.577802685184</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="2">
+        <v>45079.577802685184</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="2">
+        <v>45079.577802685184</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="2">
+        <v>45079.577802685184</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="2">
+        <v>45079.577802685184</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="2">
+        <v>45079.577802685184</v>
+      </c>
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="2">
+        <v>45079.577802685184</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="2">
+        <v>45079.577802685184</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>13</v>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="2">
+        <v>45079.577802685184</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
